--- a/data_links/links.xlsx
+++ b/data_links/links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paa/Documents/GitHub/bizdevops/links/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paa/Documents/GitHub/bizdevops/data_links/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7FC816-0EF1-9847-AB1D-552D08103458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5EAAD6-EFBF-1A45-AD55-8DFA3DDAA5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="18360" windowHeight="28300" activeTab="5" xr2:uid="{24FF55B5-6C47-2F42-8CB6-15ADE3456439}"/>
+    <workbookView xWindow="2540" yWindow="500" windowWidth="18360" windowHeight="28300" activeTab="3" xr2:uid="{24FF55B5-6C47-2F42-8CB6-15ADE3456439}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="306">
   <si>
     <t>https://devops.com/putting-biz-devops/</t>
   </si>
@@ -5285,6 +5285,35 @@
   </si>
   <si>
     <t>https://www.tcs.com/what-we-do/industries/banking/white-paper/adopting-bizdevops-financial-services</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Organizations with legacy platforms, architectures and systems </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carry infrastructure and architecture debts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that prevent them from moving into an Agile-DevOps way of working</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.cognizant.com/content/dam/connectedassets/cognizant-global-marketing/marketing-channels/cognizant-dotcom/en_us/insights/documents/17-must-do-s-to-create-a-product-centric-it-organization-codex4674.pdf</t>
   </si>
 </sst>
 </file>
@@ -5337,7 +5366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5385,6 +5414,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6418,10 +6450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A88DFB-9849-4645-B394-781A109A199E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6548,6 +6580,17 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6862,7 +6905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE201B06-D56B-C74A-8F8B-0CB5739F6F4D}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
